--- a/old_doc/04.画面詳細.xlsx
+++ b/old_doc/04.画面詳細.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\AttendanceManagement\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AttendanceManagement\old_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2088FF0-6EEB-4A6C-AAC1-07D49FEB0982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90140CB9-497E-4D39-BC4C-DBA4D2190CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15600" tabRatio="850" firstSheet="6" activeTab="8" xr2:uid="{7F7FE124-C515-4593-A2BA-1E8E1EFBB3EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="850" xr2:uid="{7F7FE124-C515-4593-A2BA-1E8E1EFBB3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="289">
   <si>
     <t>変更日</t>
   </si>
@@ -2584,16 +2584,6 @@
   </si>
   <si>
     <t>終業時間</t>
-    <rPh sb="0" eb="2">
-      <t>シュウギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>就業時間</t>
     <rPh sb="0" eb="2">
       <t>シュウギョウ</t>
     </rPh>
@@ -3469,6 +3459,440 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすることで指定期間内の始業時間・終業時間・労働時間を.xlsxの拡張子で出力するフォームが表示される</t>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キカンナイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>シギョウジカン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>シュウギョウジカン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ロウドウジカン</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横山</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06勤怠一覧</t>
+    <rPh sb="2" eb="6">
+      <t>キンタイイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠合計→出力に内容変更</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイゴウケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ナイヨウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07勤怠合計</t>
+    <rPh sb="2" eb="6">
+      <t>キンタイゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08日報表示</t>
+    <rPh sb="2" eb="6">
+      <t>ニッポウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日時と最終更新者の項目を追加</t>
+    <rPh sb="7" eb="12">
+      <t>サイシュウコウシンシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日時</t>
+    <rPh sb="0" eb="6">
+      <t>サイシュウコウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新者</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した日付の最終更新日時を表示</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>サイシュウコウシンニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した日付の最終更新者名を表示</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09勤怠修正</t>
+    <rPh sb="2" eb="6">
+      <t>キンタイシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分以外の勤怠一覧を開いたときにゴミ箱を表示
+勤怠情報がある場合はボタンが有効化される
+クリックすることで選択した日付の勤怠情報が削除される</t>
+    <rPh sb="18" eb="19">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>キンタイジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="60" eb="64">
+      <t>キンタイジョウホウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日時と最終更新者、ゴミ箱の項目を追加</t>
+    <rPh sb="7" eb="12">
+      <t>サイシュウコウシンシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能変更のため、グレーで隠す</t>
+    <rPh sb="0" eb="4">
+      <t>キノウヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミ箱</t>
+    <rPh sb="2" eb="3">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所定労働時間</t>
+    <rPh sb="0" eb="6">
+      <t>ショテイロウドウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19詳細画面</t>
+  </si>
+  <si>
+    <t>就業時間→所定労働時間に文言変更</t>
+    <rPh sb="0" eb="4">
+      <t>シュウギョウジカン</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>ショテイロウドウジカン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>モンゴンヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業時間</t>
+    <rPh sb="0" eb="4">
+      <t>シュウギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードにより、データベース上の社員情報がExcelシートに出力され、xlsx形式でダウンロードが開始される</t>
+    <rPh sb="16" eb="17">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職済みの社員を含む</t>
+  </si>
+  <si>
+    <t>初期値はONの状態
+チェックがついている場合は退職済みの社員を含んで社員情報がダウンロードでき、チェックが外れている場合は在職中の社員のみダウンロードされる</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>タイショクズ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>シャインジョウホウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ザイショクチュウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを選択</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンをクリックすることで、Excelシートのファイルを選択することができる。ファイルを選択することでボタンの横に選択したファイル名が表示される。</t>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専用テンプレートをダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22管理画面</t>
+  </si>
+  <si>
+    <t>ダウンロードの項目追加</t>
+    <rPh sb="7" eb="11">
+      <t>コウモクツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職済みの社員を含むの項目追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを選択の項目追加</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専用テンプレートをダウンロードの項目追加</t>
+    <rPh sb="0" eb="2">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの項目追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード表示の項目追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録の項目追加</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンをクリックすることで、社員一括登録用のxlsx形式のファイルがダウンロードされる</t>
+    <rPh sb="14" eb="20">
+      <t>シャインイッカツトウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックにより選択したxlsx形式のファイルの内容を読み込み、社員登録が行われる</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3480,7 +3904,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$￥-411]#,##0;[Red]&quot;-&quot;[$￥-411]#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3527,6 +3951,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -3604,7 +4041,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3626,17 +4063,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3658,6 +4101,91 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6502F1B-A9ED-154B-FC86-56DE5B4D1780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="266700"/>
+          <a:ext cx="9364980" cy="3398520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>勤怠合計から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>出力に機能変更のため、停止中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4123,13 +4651,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCAF6BD-F74A-4524-85B4-0782EBCFC2C9}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4143,6 +4675,174 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4153,25 +4853,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8DE6DD-1612-4482-A796-07219B1D8FB8}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4286,27 +4986,79 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>191</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4319,24 +5071,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AEECDF-1861-4AD3-AE60-5F38C72ADBFE}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:XFA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4365,7 +5117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36">
+    <row r="2" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381" ht="36">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4391,7 +5143,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4420,7 +5172,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4446,7 +5198,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381" ht="36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4472,7 +5224,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36">
+    <row r="6" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4498,61 +5250,2160 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" t="s">
+        <v>262</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="BY8" s="4"/>
+      <c r="CG8" s="4"/>
+      <c r="CO8" s="4"/>
+      <c r="CW8" s="4"/>
+      <c r="DE8" s="4"/>
+      <c r="DM8" s="4"/>
+      <c r="DU8" s="4"/>
+      <c r="EC8" s="4"/>
+      <c r="EK8" s="4"/>
+      <c r="ES8" s="4"/>
+      <c r="FA8" s="4"/>
+      <c r="FI8" s="4"/>
+      <c r="FQ8" s="4"/>
+      <c r="FY8" s="4"/>
+      <c r="GG8" s="4"/>
+      <c r="GO8" s="4"/>
+      <c r="GW8" s="4"/>
+      <c r="HE8" s="4"/>
+      <c r="HM8" s="4"/>
+      <c r="HU8" s="4"/>
+      <c r="IC8" s="4"/>
+      <c r="IK8" s="4"/>
+      <c r="IS8" s="4"/>
+      <c r="JA8" s="4"/>
+      <c r="JI8" s="4"/>
+      <c r="JQ8" s="4"/>
+      <c r="JY8" s="4"/>
+      <c r="KG8" s="4"/>
+      <c r="KO8" s="4"/>
+      <c r="KW8" s="4"/>
+      <c r="LE8" s="4"/>
+      <c r="LM8" s="4"/>
+      <c r="LU8" s="4"/>
+      <c r="MC8" s="4"/>
+      <c r="MK8" s="4"/>
+      <c r="MS8" s="4"/>
+      <c r="NA8" s="4"/>
+      <c r="NI8" s="4"/>
+      <c r="NQ8" s="4"/>
+      <c r="NY8" s="4"/>
+      <c r="OG8" s="4"/>
+      <c r="OO8" s="4"/>
+      <c r="OW8" s="4"/>
+      <c r="PE8" s="4"/>
+      <c r="PM8" s="4"/>
+      <c r="PU8" s="4"/>
+      <c r="QC8" s="4"/>
+      <c r="QK8" s="4"/>
+      <c r="QS8" s="4"/>
+      <c r="RA8" s="4"/>
+      <c r="RI8" s="4"/>
+      <c r="RQ8" s="4"/>
+      <c r="RY8" s="4"/>
+      <c r="SG8" s="4"/>
+      <c r="SO8" s="4"/>
+      <c r="SW8" s="4"/>
+      <c r="TE8" s="4"/>
+      <c r="TM8" s="4"/>
+      <c r="TU8" s="4"/>
+      <c r="UC8" s="4"/>
+      <c r="UK8" s="4"/>
+      <c r="US8" s="4"/>
+      <c r="VA8" s="4"/>
+      <c r="VI8" s="4"/>
+      <c r="VQ8" s="4"/>
+      <c r="VY8" s="4"/>
+      <c r="WG8" s="4"/>
+      <c r="WO8" s="4"/>
+      <c r="WW8" s="4"/>
+      <c r="XE8" s="4"/>
+      <c r="XM8" s="4"/>
+      <c r="XU8" s="4"/>
+      <c r="YC8" s="4"/>
+      <c r="YK8" s="4"/>
+      <c r="YS8" s="4"/>
+      <c r="ZA8" s="4"/>
+      <c r="ZI8" s="4"/>
+      <c r="ZQ8" s="4"/>
+      <c r="ZY8" s="4"/>
+      <c r="AAG8" s="4"/>
+      <c r="AAO8" s="4"/>
+      <c r="AAW8" s="4"/>
+      <c r="ABE8" s="4"/>
+      <c r="ABM8" s="4"/>
+      <c r="ABU8" s="4"/>
+      <c r="ACC8" s="4"/>
+      <c r="ACK8" s="4"/>
+      <c r="ACS8" s="4"/>
+      <c r="ADA8" s="4"/>
+      <c r="ADI8" s="4"/>
+      <c r="ADQ8" s="4"/>
+      <c r="ADY8" s="4"/>
+      <c r="AEG8" s="4"/>
+      <c r="AEO8" s="4"/>
+      <c r="AEW8" s="4"/>
+      <c r="AFE8" s="4"/>
+      <c r="AFM8" s="4"/>
+      <c r="AFU8" s="4"/>
+      <c r="AGC8" s="4"/>
+      <c r="AGK8" s="4"/>
+      <c r="AGS8" s="4"/>
+      <c r="AHA8" s="4"/>
+      <c r="AHI8" s="4"/>
+      <c r="AHQ8" s="4"/>
+      <c r="AHY8" s="4"/>
+      <c r="AIG8" s="4"/>
+      <c r="AIO8" s="4"/>
+      <c r="AIW8" s="4"/>
+      <c r="AJE8" s="4"/>
+      <c r="AJM8" s="4"/>
+      <c r="AJU8" s="4"/>
+      <c r="AKC8" s="4"/>
+      <c r="AKK8" s="4"/>
+      <c r="AKS8" s="4"/>
+      <c r="ALA8" s="4"/>
+      <c r="ALI8" s="4"/>
+      <c r="ALQ8" s="4"/>
+      <c r="ALY8" s="4"/>
+      <c r="AMG8" s="4"/>
+      <c r="AMO8" s="4"/>
+      <c r="AMW8" s="4"/>
+      <c r="ANE8" s="4"/>
+      <c r="ANM8" s="4"/>
+      <c r="ANU8" s="4"/>
+      <c r="AOC8" s="4"/>
+      <c r="AOK8" s="4"/>
+      <c r="AOS8" s="4"/>
+      <c r="APA8" s="4"/>
+      <c r="API8" s="4"/>
+      <c r="APQ8" s="4"/>
+      <c r="APY8" s="4"/>
+      <c r="AQG8" s="4"/>
+      <c r="AQO8" s="4"/>
+      <c r="AQW8" s="4"/>
+      <c r="ARE8" s="4"/>
+      <c r="ARM8" s="4"/>
+      <c r="ARU8" s="4"/>
+      <c r="ASC8" s="4"/>
+      <c r="ASK8" s="4"/>
+      <c r="ASS8" s="4"/>
+      <c r="ATA8" s="4"/>
+      <c r="ATI8" s="4"/>
+      <c r="ATQ8" s="4"/>
+      <c r="ATY8" s="4"/>
+      <c r="AUG8" s="4"/>
+      <c r="AUO8" s="4"/>
+      <c r="AUW8" s="4"/>
+      <c r="AVE8" s="4"/>
+      <c r="AVM8" s="4"/>
+      <c r="AVU8" s="4"/>
+      <c r="AWC8" s="4"/>
+      <c r="AWK8" s="4"/>
+      <c r="AWS8" s="4"/>
+      <c r="AXA8" s="4"/>
+      <c r="AXI8" s="4"/>
+      <c r="AXQ8" s="4"/>
+      <c r="AXY8" s="4"/>
+      <c r="AYG8" s="4"/>
+      <c r="AYO8" s="4"/>
+      <c r="AYW8" s="4"/>
+      <c r="AZE8" s="4"/>
+      <c r="AZM8" s="4"/>
+      <c r="AZU8" s="4"/>
+      <c r="BAC8" s="4"/>
+      <c r="BAK8" s="4"/>
+      <c r="BAS8" s="4"/>
+      <c r="BBA8" s="4"/>
+      <c r="BBI8" s="4"/>
+      <c r="BBQ8" s="4"/>
+      <c r="BBY8" s="4"/>
+      <c r="BCG8" s="4"/>
+      <c r="BCO8" s="4"/>
+      <c r="BCW8" s="4"/>
+      <c r="BDE8" s="4"/>
+      <c r="BDM8" s="4"/>
+      <c r="BDU8" s="4"/>
+      <c r="BEC8" s="4"/>
+      <c r="BEK8" s="4"/>
+      <c r="BES8" s="4"/>
+      <c r="BFA8" s="4"/>
+      <c r="BFI8" s="4"/>
+      <c r="BFQ8" s="4"/>
+      <c r="BFY8" s="4"/>
+      <c r="BGG8" s="4"/>
+      <c r="BGO8" s="4"/>
+      <c r="BGW8" s="4"/>
+      <c r="BHE8" s="4"/>
+      <c r="BHM8" s="4"/>
+      <c r="BHU8" s="4"/>
+      <c r="BIC8" s="4"/>
+      <c r="BIK8" s="4"/>
+      <c r="BIS8" s="4"/>
+      <c r="BJA8" s="4"/>
+      <c r="BJI8" s="4"/>
+      <c r="BJQ8" s="4"/>
+      <c r="BJY8" s="4"/>
+      <c r="BKG8" s="4"/>
+      <c r="BKO8" s="4"/>
+      <c r="BKW8" s="4"/>
+      <c r="BLE8" s="4"/>
+      <c r="BLM8" s="4"/>
+      <c r="BLU8" s="4"/>
+      <c r="BMC8" s="4"/>
+      <c r="BMK8" s="4"/>
+      <c r="BMS8" s="4"/>
+      <c r="BNA8" s="4"/>
+      <c r="BNI8" s="4"/>
+      <c r="BNQ8" s="4"/>
+      <c r="BNY8" s="4"/>
+      <c r="BOG8" s="4"/>
+      <c r="BOO8" s="4"/>
+      <c r="BOW8" s="4"/>
+      <c r="BPE8" s="4"/>
+      <c r="BPM8" s="4"/>
+      <c r="BPU8" s="4"/>
+      <c r="BQC8" s="4"/>
+      <c r="BQK8" s="4"/>
+      <c r="BQS8" s="4"/>
+      <c r="BRA8" s="4"/>
+      <c r="BRI8" s="4"/>
+      <c r="BRQ8" s="4"/>
+      <c r="BRY8" s="4"/>
+      <c r="BSG8" s="4"/>
+      <c r="BSO8" s="4"/>
+      <c r="BSW8" s="4"/>
+      <c r="BTE8" s="4"/>
+      <c r="BTM8" s="4"/>
+      <c r="BTU8" s="4"/>
+      <c r="BUC8" s="4"/>
+      <c r="BUK8" s="4"/>
+      <c r="BUS8" s="4"/>
+      <c r="BVA8" s="4"/>
+      <c r="BVI8" s="4"/>
+      <c r="BVQ8" s="4"/>
+      <c r="BVY8" s="4"/>
+      <c r="BWG8" s="4"/>
+      <c r="BWO8" s="4"/>
+      <c r="BWW8" s="4"/>
+      <c r="BXE8" s="4"/>
+      <c r="BXM8" s="4"/>
+      <c r="BXU8" s="4"/>
+      <c r="BYC8" s="4"/>
+      <c r="BYK8" s="4"/>
+      <c r="BYS8" s="4"/>
+      <c r="BZA8" s="4"/>
+      <c r="BZI8" s="4"/>
+      <c r="BZQ8" s="4"/>
+      <c r="BZY8" s="4"/>
+      <c r="CAG8" s="4"/>
+      <c r="CAO8" s="4"/>
+      <c r="CAW8" s="4"/>
+      <c r="CBE8" s="4"/>
+      <c r="CBM8" s="4"/>
+      <c r="CBU8" s="4"/>
+      <c r="CCC8" s="4"/>
+      <c r="CCK8" s="4"/>
+      <c r="CCS8" s="4"/>
+      <c r="CDA8" s="4"/>
+      <c r="CDI8" s="4"/>
+      <c r="CDQ8" s="4"/>
+      <c r="CDY8" s="4"/>
+      <c r="CEG8" s="4"/>
+      <c r="CEO8" s="4"/>
+      <c r="CEW8" s="4"/>
+      <c r="CFE8" s="4"/>
+      <c r="CFM8" s="4"/>
+      <c r="CFU8" s="4"/>
+      <c r="CGC8" s="4"/>
+      <c r="CGK8" s="4"/>
+      <c r="CGS8" s="4"/>
+      <c r="CHA8" s="4"/>
+      <c r="CHI8" s="4"/>
+      <c r="CHQ8" s="4"/>
+      <c r="CHY8" s="4"/>
+      <c r="CIG8" s="4"/>
+      <c r="CIO8" s="4"/>
+      <c r="CIW8" s="4"/>
+      <c r="CJE8" s="4"/>
+      <c r="CJM8" s="4"/>
+      <c r="CJU8" s="4"/>
+      <c r="CKC8" s="4"/>
+      <c r="CKK8" s="4"/>
+      <c r="CKS8" s="4"/>
+      <c r="CLA8" s="4"/>
+      <c r="CLI8" s="4"/>
+      <c r="CLQ8" s="4"/>
+      <c r="CLY8" s="4"/>
+      <c r="CMG8" s="4"/>
+      <c r="CMO8" s="4"/>
+      <c r="CMW8" s="4"/>
+      <c r="CNE8" s="4"/>
+      <c r="CNM8" s="4"/>
+      <c r="CNU8" s="4"/>
+      <c r="COC8" s="4"/>
+      <c r="COK8" s="4"/>
+      <c r="COS8" s="4"/>
+      <c r="CPA8" s="4"/>
+      <c r="CPI8" s="4"/>
+      <c r="CPQ8" s="4"/>
+      <c r="CPY8" s="4"/>
+      <c r="CQG8" s="4"/>
+      <c r="CQO8" s="4"/>
+      <c r="CQW8" s="4"/>
+      <c r="CRE8" s="4"/>
+      <c r="CRM8" s="4"/>
+      <c r="CRU8" s="4"/>
+      <c r="CSC8" s="4"/>
+      <c r="CSK8" s="4"/>
+      <c r="CSS8" s="4"/>
+      <c r="CTA8" s="4"/>
+      <c r="CTI8" s="4"/>
+      <c r="CTQ8" s="4"/>
+      <c r="CTY8" s="4"/>
+      <c r="CUG8" s="4"/>
+      <c r="CUO8" s="4"/>
+      <c r="CUW8" s="4"/>
+      <c r="CVE8" s="4"/>
+      <c r="CVM8" s="4"/>
+      <c r="CVU8" s="4"/>
+      <c r="CWC8" s="4"/>
+      <c r="CWK8" s="4"/>
+      <c r="CWS8" s="4"/>
+      <c r="CXA8" s="4"/>
+      <c r="CXI8" s="4"/>
+      <c r="CXQ8" s="4"/>
+      <c r="CXY8" s="4"/>
+      <c r="CYG8" s="4"/>
+      <c r="CYO8" s="4"/>
+      <c r="CYW8" s="4"/>
+      <c r="CZE8" s="4"/>
+      <c r="CZM8" s="4"/>
+      <c r="CZU8" s="4"/>
+      <c r="DAC8" s="4"/>
+      <c r="DAK8" s="4"/>
+      <c r="DAS8" s="4"/>
+      <c r="DBA8" s="4"/>
+      <c r="DBI8" s="4"/>
+      <c r="DBQ8" s="4"/>
+      <c r="DBY8" s="4"/>
+      <c r="DCG8" s="4"/>
+      <c r="DCO8" s="4"/>
+      <c r="DCW8" s="4"/>
+      <c r="DDE8" s="4"/>
+      <c r="DDM8" s="4"/>
+      <c r="DDU8" s="4"/>
+      <c r="DEC8" s="4"/>
+      <c r="DEK8" s="4"/>
+      <c r="DES8" s="4"/>
+      <c r="DFA8" s="4"/>
+      <c r="DFI8" s="4"/>
+      <c r="DFQ8" s="4"/>
+      <c r="DFY8" s="4"/>
+      <c r="DGG8" s="4"/>
+      <c r="DGO8" s="4"/>
+      <c r="DGW8" s="4"/>
+      <c r="DHE8" s="4"/>
+      <c r="DHM8" s="4"/>
+      <c r="DHU8" s="4"/>
+      <c r="DIC8" s="4"/>
+      <c r="DIK8" s="4"/>
+      <c r="DIS8" s="4"/>
+      <c r="DJA8" s="4"/>
+      <c r="DJI8" s="4"/>
+      <c r="DJQ8" s="4"/>
+      <c r="DJY8" s="4"/>
+      <c r="DKG8" s="4"/>
+      <c r="DKO8" s="4"/>
+      <c r="DKW8" s="4"/>
+      <c r="DLE8" s="4"/>
+      <c r="DLM8" s="4"/>
+      <c r="DLU8" s="4"/>
+      <c r="DMC8" s="4"/>
+      <c r="DMK8" s="4"/>
+      <c r="DMS8" s="4"/>
+      <c r="DNA8" s="4"/>
+      <c r="DNI8" s="4"/>
+      <c r="DNQ8" s="4"/>
+      <c r="DNY8" s="4"/>
+      <c r="DOG8" s="4"/>
+      <c r="DOO8" s="4"/>
+      <c r="DOW8" s="4"/>
+      <c r="DPE8" s="4"/>
+      <c r="DPM8" s="4"/>
+      <c r="DPU8" s="4"/>
+      <c r="DQC8" s="4"/>
+      <c r="DQK8" s="4"/>
+      <c r="DQS8" s="4"/>
+      <c r="DRA8" s="4"/>
+      <c r="DRI8" s="4"/>
+      <c r="DRQ8" s="4"/>
+      <c r="DRY8" s="4"/>
+      <c r="DSG8" s="4"/>
+      <c r="DSO8" s="4"/>
+      <c r="DSW8" s="4"/>
+      <c r="DTE8" s="4"/>
+      <c r="DTM8" s="4"/>
+      <c r="DTU8" s="4"/>
+      <c r="DUC8" s="4"/>
+      <c r="DUK8" s="4"/>
+      <c r="DUS8" s="4"/>
+      <c r="DVA8" s="4"/>
+      <c r="DVI8" s="4"/>
+      <c r="DVQ8" s="4"/>
+      <c r="DVY8" s="4"/>
+      <c r="DWG8" s="4"/>
+      <c r="DWO8" s="4"/>
+      <c r="DWW8" s="4"/>
+      <c r="DXE8" s="4"/>
+      <c r="DXM8" s="4"/>
+      <c r="DXU8" s="4"/>
+      <c r="DYC8" s="4"/>
+      <c r="DYK8" s="4"/>
+      <c r="DYS8" s="4"/>
+      <c r="DZA8" s="4"/>
+      <c r="DZI8" s="4"/>
+      <c r="DZQ8" s="4"/>
+      <c r="DZY8" s="4"/>
+      <c r="EAG8" s="4"/>
+      <c r="EAO8" s="4"/>
+      <c r="EAW8" s="4"/>
+      <c r="EBE8" s="4"/>
+      <c r="EBM8" s="4"/>
+      <c r="EBU8" s="4"/>
+      <c r="ECC8" s="4"/>
+      <c r="ECK8" s="4"/>
+      <c r="ECS8" s="4"/>
+      <c r="EDA8" s="4"/>
+      <c r="EDI8" s="4"/>
+      <c r="EDQ8" s="4"/>
+      <c r="EDY8" s="4"/>
+      <c r="EEG8" s="4"/>
+      <c r="EEO8" s="4"/>
+      <c r="EEW8" s="4"/>
+      <c r="EFE8" s="4"/>
+      <c r="EFM8" s="4"/>
+      <c r="EFU8" s="4"/>
+      <c r="EGC8" s="4"/>
+      <c r="EGK8" s="4"/>
+      <c r="EGS8" s="4"/>
+      <c r="EHA8" s="4"/>
+      <c r="EHI8" s="4"/>
+      <c r="EHQ8" s="4"/>
+      <c r="EHY8" s="4"/>
+      <c r="EIG8" s="4"/>
+      <c r="EIO8" s="4"/>
+      <c r="EIW8" s="4"/>
+      <c r="EJE8" s="4"/>
+      <c r="EJM8" s="4"/>
+      <c r="EJU8" s="4"/>
+      <c r="EKC8" s="4"/>
+      <c r="EKK8" s="4"/>
+      <c r="EKS8" s="4"/>
+      <c r="ELA8" s="4"/>
+      <c r="ELI8" s="4"/>
+      <c r="ELQ8" s="4"/>
+      <c r="ELY8" s="4"/>
+      <c r="EMG8" s="4"/>
+      <c r="EMO8" s="4"/>
+      <c r="EMW8" s="4"/>
+      <c r="ENE8" s="4"/>
+      <c r="ENM8" s="4"/>
+      <c r="ENU8" s="4"/>
+      <c r="EOC8" s="4"/>
+      <c r="EOK8" s="4"/>
+      <c r="EOS8" s="4"/>
+      <c r="EPA8" s="4"/>
+      <c r="EPI8" s="4"/>
+      <c r="EPQ8" s="4"/>
+      <c r="EPY8" s="4"/>
+      <c r="EQG8" s="4"/>
+      <c r="EQO8" s="4"/>
+      <c r="EQW8" s="4"/>
+      <c r="ERE8" s="4"/>
+      <c r="ERM8" s="4"/>
+      <c r="ERU8" s="4"/>
+      <c r="ESC8" s="4"/>
+      <c r="ESK8" s="4"/>
+      <c r="ESS8" s="4"/>
+      <c r="ETA8" s="4"/>
+      <c r="ETI8" s="4"/>
+      <c r="ETQ8" s="4"/>
+      <c r="ETY8" s="4"/>
+      <c r="EUG8" s="4"/>
+      <c r="EUO8" s="4"/>
+      <c r="EUW8" s="4"/>
+      <c r="EVE8" s="4"/>
+      <c r="EVM8" s="4"/>
+      <c r="EVU8" s="4"/>
+      <c r="EWC8" s="4"/>
+      <c r="EWK8" s="4"/>
+      <c r="EWS8" s="4"/>
+      <c r="EXA8" s="4"/>
+      <c r="EXI8" s="4"/>
+      <c r="EXQ8" s="4"/>
+      <c r="EXY8" s="4"/>
+      <c r="EYG8" s="4"/>
+      <c r="EYO8" s="4"/>
+      <c r="EYW8" s="4"/>
+      <c r="EZE8" s="4"/>
+      <c r="EZM8" s="4"/>
+      <c r="EZU8" s="4"/>
+      <c r="FAC8" s="4"/>
+      <c r="FAK8" s="4"/>
+      <c r="FAS8" s="4"/>
+      <c r="FBA8" s="4"/>
+      <c r="FBI8" s="4"/>
+      <c r="FBQ8" s="4"/>
+      <c r="FBY8" s="4"/>
+      <c r="FCG8" s="4"/>
+      <c r="FCO8" s="4"/>
+      <c r="FCW8" s="4"/>
+      <c r="FDE8" s="4"/>
+      <c r="FDM8" s="4"/>
+      <c r="FDU8" s="4"/>
+      <c r="FEC8" s="4"/>
+      <c r="FEK8" s="4"/>
+      <c r="FES8" s="4"/>
+      <c r="FFA8" s="4"/>
+      <c r="FFI8" s="4"/>
+      <c r="FFQ8" s="4"/>
+      <c r="FFY8" s="4"/>
+      <c r="FGG8" s="4"/>
+      <c r="FGO8" s="4"/>
+      <c r="FGW8" s="4"/>
+      <c r="FHE8" s="4"/>
+      <c r="FHM8" s="4"/>
+      <c r="FHU8" s="4"/>
+      <c r="FIC8" s="4"/>
+      <c r="FIK8" s="4"/>
+      <c r="FIS8" s="4"/>
+      <c r="FJA8" s="4"/>
+      <c r="FJI8" s="4"/>
+      <c r="FJQ8" s="4"/>
+      <c r="FJY8" s="4"/>
+      <c r="FKG8" s="4"/>
+      <c r="FKO8" s="4"/>
+      <c r="FKW8" s="4"/>
+      <c r="FLE8" s="4"/>
+      <c r="FLM8" s="4"/>
+      <c r="FLU8" s="4"/>
+      <c r="FMC8" s="4"/>
+      <c r="FMK8" s="4"/>
+      <c r="FMS8" s="4"/>
+      <c r="FNA8" s="4"/>
+      <c r="FNI8" s="4"/>
+      <c r="FNQ8" s="4"/>
+      <c r="FNY8" s="4"/>
+      <c r="FOG8" s="4"/>
+      <c r="FOO8" s="4"/>
+      <c r="FOW8" s="4"/>
+      <c r="FPE8" s="4"/>
+      <c r="FPM8" s="4"/>
+      <c r="FPU8" s="4"/>
+      <c r="FQC8" s="4"/>
+      <c r="FQK8" s="4"/>
+      <c r="FQS8" s="4"/>
+      <c r="FRA8" s="4"/>
+      <c r="FRI8" s="4"/>
+      <c r="FRQ8" s="4"/>
+      <c r="FRY8" s="4"/>
+      <c r="FSG8" s="4"/>
+      <c r="FSO8" s="4"/>
+      <c r="FSW8" s="4"/>
+      <c r="FTE8" s="4"/>
+      <c r="FTM8" s="4"/>
+      <c r="FTU8" s="4"/>
+      <c r="FUC8" s="4"/>
+      <c r="FUK8" s="4"/>
+      <c r="FUS8" s="4"/>
+      <c r="FVA8" s="4"/>
+      <c r="FVI8" s="4"/>
+      <c r="FVQ8" s="4"/>
+      <c r="FVY8" s="4"/>
+      <c r="FWG8" s="4"/>
+      <c r="FWO8" s="4"/>
+      <c r="FWW8" s="4"/>
+      <c r="FXE8" s="4"/>
+      <c r="FXM8" s="4"/>
+      <c r="FXU8" s="4"/>
+      <c r="FYC8" s="4"/>
+      <c r="FYK8" s="4"/>
+      <c r="FYS8" s="4"/>
+      <c r="FZA8" s="4"/>
+      <c r="FZI8" s="4"/>
+      <c r="FZQ8" s="4"/>
+      <c r="FZY8" s="4"/>
+      <c r="GAG8" s="4"/>
+      <c r="GAO8" s="4"/>
+      <c r="GAW8" s="4"/>
+      <c r="GBE8" s="4"/>
+      <c r="GBM8" s="4"/>
+      <c r="GBU8" s="4"/>
+      <c r="GCC8" s="4"/>
+      <c r="GCK8" s="4"/>
+      <c r="GCS8" s="4"/>
+      <c r="GDA8" s="4"/>
+      <c r="GDI8" s="4"/>
+      <c r="GDQ8" s="4"/>
+      <c r="GDY8" s="4"/>
+      <c r="GEG8" s="4"/>
+      <c r="GEO8" s="4"/>
+      <c r="GEW8" s="4"/>
+      <c r="GFE8" s="4"/>
+      <c r="GFM8" s="4"/>
+      <c r="GFU8" s="4"/>
+      <c r="GGC8" s="4"/>
+      <c r="GGK8" s="4"/>
+      <c r="GGS8" s="4"/>
+      <c r="GHA8" s="4"/>
+      <c r="GHI8" s="4"/>
+      <c r="GHQ8" s="4"/>
+      <c r="GHY8" s="4"/>
+      <c r="GIG8" s="4"/>
+      <c r="GIO8" s="4"/>
+      <c r="GIW8" s="4"/>
+      <c r="GJE8" s="4"/>
+      <c r="GJM8" s="4"/>
+      <c r="GJU8" s="4"/>
+      <c r="GKC8" s="4"/>
+      <c r="GKK8" s="4"/>
+      <c r="GKS8" s="4"/>
+      <c r="GLA8" s="4"/>
+      <c r="GLI8" s="4"/>
+      <c r="GLQ8" s="4"/>
+      <c r="GLY8" s="4"/>
+      <c r="GMG8" s="4"/>
+      <c r="GMO8" s="4"/>
+      <c r="GMW8" s="4"/>
+      <c r="GNE8" s="4"/>
+      <c r="GNM8" s="4"/>
+      <c r="GNU8" s="4"/>
+      <c r="GOC8" s="4"/>
+      <c r="GOK8" s="4"/>
+      <c r="GOS8" s="4"/>
+      <c r="GPA8" s="4"/>
+      <c r="GPI8" s="4"/>
+      <c r="GPQ8" s="4"/>
+      <c r="GPY8" s="4"/>
+      <c r="GQG8" s="4"/>
+      <c r="GQO8" s="4"/>
+      <c r="GQW8" s="4"/>
+      <c r="GRE8" s="4"/>
+      <c r="GRM8" s="4"/>
+      <c r="GRU8" s="4"/>
+      <c r="GSC8" s="4"/>
+      <c r="GSK8" s="4"/>
+      <c r="GSS8" s="4"/>
+      <c r="GTA8" s="4"/>
+      <c r="GTI8" s="4"/>
+      <c r="GTQ8" s="4"/>
+      <c r="GTY8" s="4"/>
+      <c r="GUG8" s="4"/>
+      <c r="GUO8" s="4"/>
+      <c r="GUW8" s="4"/>
+      <c r="GVE8" s="4"/>
+      <c r="GVM8" s="4"/>
+      <c r="GVU8" s="4"/>
+      <c r="GWC8" s="4"/>
+      <c r="GWK8" s="4"/>
+      <c r="GWS8" s="4"/>
+      <c r="GXA8" s="4"/>
+      <c r="GXI8" s="4"/>
+      <c r="GXQ8" s="4"/>
+      <c r="GXY8" s="4"/>
+      <c r="GYG8" s="4"/>
+      <c r="GYO8" s="4"/>
+      <c r="GYW8" s="4"/>
+      <c r="GZE8" s="4"/>
+      <c r="GZM8" s="4"/>
+      <c r="GZU8" s="4"/>
+      <c r="HAC8" s="4"/>
+      <c r="HAK8" s="4"/>
+      <c r="HAS8" s="4"/>
+      <c r="HBA8" s="4"/>
+      <c r="HBI8" s="4"/>
+      <c r="HBQ8" s="4"/>
+      <c r="HBY8" s="4"/>
+      <c r="HCG8" s="4"/>
+      <c r="HCO8" s="4"/>
+      <c r="HCW8" s="4"/>
+      <c r="HDE8" s="4"/>
+      <c r="HDM8" s="4"/>
+      <c r="HDU8" s="4"/>
+      <c r="HEC8" s="4"/>
+      <c r="HEK8" s="4"/>
+      <c r="HES8" s="4"/>
+      <c r="HFA8" s="4"/>
+      <c r="HFI8" s="4"/>
+      <c r="HFQ8" s="4"/>
+      <c r="HFY8" s="4"/>
+      <c r="HGG8" s="4"/>
+      <c r="HGO8" s="4"/>
+      <c r="HGW8" s="4"/>
+      <c r="HHE8" s="4"/>
+      <c r="HHM8" s="4"/>
+      <c r="HHU8" s="4"/>
+      <c r="HIC8" s="4"/>
+      <c r="HIK8" s="4"/>
+      <c r="HIS8" s="4"/>
+      <c r="HJA8" s="4"/>
+      <c r="HJI8" s="4"/>
+      <c r="HJQ8" s="4"/>
+      <c r="HJY8" s="4"/>
+      <c r="HKG8" s="4"/>
+      <c r="HKO8" s="4"/>
+      <c r="HKW8" s="4"/>
+      <c r="HLE8" s="4"/>
+      <c r="HLM8" s="4"/>
+      <c r="HLU8" s="4"/>
+      <c r="HMC8" s="4"/>
+      <c r="HMK8" s="4"/>
+      <c r="HMS8" s="4"/>
+      <c r="HNA8" s="4"/>
+      <c r="HNI8" s="4"/>
+      <c r="HNQ8" s="4"/>
+      <c r="HNY8" s="4"/>
+      <c r="HOG8" s="4"/>
+      <c r="HOO8" s="4"/>
+      <c r="HOW8" s="4"/>
+      <c r="HPE8" s="4"/>
+      <c r="HPM8" s="4"/>
+      <c r="HPU8" s="4"/>
+      <c r="HQC8" s="4"/>
+      <c r="HQK8" s="4"/>
+      <c r="HQS8" s="4"/>
+      <c r="HRA8" s="4"/>
+      <c r="HRI8" s="4"/>
+      <c r="HRQ8" s="4"/>
+      <c r="HRY8" s="4"/>
+      <c r="HSG8" s="4"/>
+      <c r="HSO8" s="4"/>
+      <c r="HSW8" s="4"/>
+      <c r="HTE8" s="4"/>
+      <c r="HTM8" s="4"/>
+      <c r="HTU8" s="4"/>
+      <c r="HUC8" s="4"/>
+      <c r="HUK8" s="4"/>
+      <c r="HUS8" s="4"/>
+      <c r="HVA8" s="4"/>
+      <c r="HVI8" s="4"/>
+      <c r="HVQ8" s="4"/>
+      <c r="HVY8" s="4"/>
+      <c r="HWG8" s="4"/>
+      <c r="HWO8" s="4"/>
+      <c r="HWW8" s="4"/>
+      <c r="HXE8" s="4"/>
+      <c r="HXM8" s="4"/>
+      <c r="HXU8" s="4"/>
+      <c r="HYC8" s="4"/>
+      <c r="HYK8" s="4"/>
+      <c r="HYS8" s="4"/>
+      <c r="HZA8" s="4"/>
+      <c r="HZI8" s="4"/>
+      <c r="HZQ8" s="4"/>
+      <c r="HZY8" s="4"/>
+      <c r="IAG8" s="4"/>
+      <c r="IAO8" s="4"/>
+      <c r="IAW8" s="4"/>
+      <c r="IBE8" s="4"/>
+      <c r="IBM8" s="4"/>
+      <c r="IBU8" s="4"/>
+      <c r="ICC8" s="4"/>
+      <c r="ICK8" s="4"/>
+      <c r="ICS8" s="4"/>
+      <c r="IDA8" s="4"/>
+      <c r="IDI8" s="4"/>
+      <c r="IDQ8" s="4"/>
+      <c r="IDY8" s="4"/>
+      <c r="IEG8" s="4"/>
+      <c r="IEO8" s="4"/>
+      <c r="IEW8" s="4"/>
+      <c r="IFE8" s="4"/>
+      <c r="IFM8" s="4"/>
+      <c r="IFU8" s="4"/>
+      <c r="IGC8" s="4"/>
+      <c r="IGK8" s="4"/>
+      <c r="IGS8" s="4"/>
+      <c r="IHA8" s="4"/>
+      <c r="IHI8" s="4"/>
+      <c r="IHQ8" s="4"/>
+      <c r="IHY8" s="4"/>
+      <c r="IIG8" s="4"/>
+      <c r="IIO8" s="4"/>
+      <c r="IIW8" s="4"/>
+      <c r="IJE8" s="4"/>
+      <c r="IJM8" s="4"/>
+      <c r="IJU8" s="4"/>
+      <c r="IKC8" s="4"/>
+      <c r="IKK8" s="4"/>
+      <c r="IKS8" s="4"/>
+      <c r="ILA8" s="4"/>
+      <c r="ILI8" s="4"/>
+      <c r="ILQ8" s="4"/>
+      <c r="ILY8" s="4"/>
+      <c r="IMG8" s="4"/>
+      <c r="IMO8" s="4"/>
+      <c r="IMW8" s="4"/>
+      <c r="INE8" s="4"/>
+      <c r="INM8" s="4"/>
+      <c r="INU8" s="4"/>
+      <c r="IOC8" s="4"/>
+      <c r="IOK8" s="4"/>
+      <c r="IOS8" s="4"/>
+      <c r="IPA8" s="4"/>
+      <c r="IPI8" s="4"/>
+      <c r="IPQ8" s="4"/>
+      <c r="IPY8" s="4"/>
+      <c r="IQG8" s="4"/>
+      <c r="IQO8" s="4"/>
+      <c r="IQW8" s="4"/>
+      <c r="IRE8" s="4"/>
+      <c r="IRM8" s="4"/>
+      <c r="IRU8" s="4"/>
+      <c r="ISC8" s="4"/>
+      <c r="ISK8" s="4"/>
+      <c r="ISS8" s="4"/>
+      <c r="ITA8" s="4"/>
+      <c r="ITI8" s="4"/>
+      <c r="ITQ8" s="4"/>
+      <c r="ITY8" s="4"/>
+      <c r="IUG8" s="4"/>
+      <c r="IUO8" s="4"/>
+      <c r="IUW8" s="4"/>
+      <c r="IVE8" s="4"/>
+      <c r="IVM8" s="4"/>
+      <c r="IVU8" s="4"/>
+      <c r="IWC8" s="4"/>
+      <c r="IWK8" s="4"/>
+      <c r="IWS8" s="4"/>
+      <c r="IXA8" s="4"/>
+      <c r="IXI8" s="4"/>
+      <c r="IXQ8" s="4"/>
+      <c r="IXY8" s="4"/>
+      <c r="IYG8" s="4"/>
+      <c r="IYO8" s="4"/>
+      <c r="IYW8" s="4"/>
+      <c r="IZE8" s="4"/>
+      <c r="IZM8" s="4"/>
+      <c r="IZU8" s="4"/>
+      <c r="JAC8" s="4"/>
+      <c r="JAK8" s="4"/>
+      <c r="JAS8" s="4"/>
+      <c r="JBA8" s="4"/>
+      <c r="JBI8" s="4"/>
+      <c r="JBQ8" s="4"/>
+      <c r="JBY8" s="4"/>
+      <c r="JCG8" s="4"/>
+      <c r="JCO8" s="4"/>
+      <c r="JCW8" s="4"/>
+      <c r="JDE8" s="4"/>
+      <c r="JDM8" s="4"/>
+      <c r="JDU8" s="4"/>
+      <c r="JEC8" s="4"/>
+      <c r="JEK8" s="4"/>
+      <c r="JES8" s="4"/>
+      <c r="JFA8" s="4"/>
+      <c r="JFI8" s="4"/>
+      <c r="JFQ8" s="4"/>
+      <c r="JFY8" s="4"/>
+      <c r="JGG8" s="4"/>
+      <c r="JGO8" s="4"/>
+      <c r="JGW8" s="4"/>
+      <c r="JHE8" s="4"/>
+      <c r="JHM8" s="4"/>
+      <c r="JHU8" s="4"/>
+      <c r="JIC8" s="4"/>
+      <c r="JIK8" s="4"/>
+      <c r="JIS8" s="4"/>
+      <c r="JJA8" s="4"/>
+      <c r="JJI8" s="4"/>
+      <c r="JJQ8" s="4"/>
+      <c r="JJY8" s="4"/>
+      <c r="JKG8" s="4"/>
+      <c r="JKO8" s="4"/>
+      <c r="JKW8" s="4"/>
+      <c r="JLE8" s="4"/>
+      <c r="JLM8" s="4"/>
+      <c r="JLU8" s="4"/>
+      <c r="JMC8" s="4"/>
+      <c r="JMK8" s="4"/>
+      <c r="JMS8" s="4"/>
+      <c r="JNA8" s="4"/>
+      <c r="JNI8" s="4"/>
+      <c r="JNQ8" s="4"/>
+      <c r="JNY8" s="4"/>
+      <c r="JOG8" s="4"/>
+      <c r="JOO8" s="4"/>
+      <c r="JOW8" s="4"/>
+      <c r="JPE8" s="4"/>
+      <c r="JPM8" s="4"/>
+      <c r="JPU8" s="4"/>
+      <c r="JQC8" s="4"/>
+      <c r="JQK8" s="4"/>
+      <c r="JQS8" s="4"/>
+      <c r="JRA8" s="4"/>
+      <c r="JRI8" s="4"/>
+      <c r="JRQ8" s="4"/>
+      <c r="JRY8" s="4"/>
+      <c r="JSG8" s="4"/>
+      <c r="JSO8" s="4"/>
+      <c r="JSW8" s="4"/>
+      <c r="JTE8" s="4"/>
+      <c r="JTM8" s="4"/>
+      <c r="JTU8" s="4"/>
+      <c r="JUC8" s="4"/>
+      <c r="JUK8" s="4"/>
+      <c r="JUS8" s="4"/>
+      <c r="JVA8" s="4"/>
+      <c r="JVI8" s="4"/>
+      <c r="JVQ8" s="4"/>
+      <c r="JVY8" s="4"/>
+      <c r="JWG8" s="4"/>
+      <c r="JWO8" s="4"/>
+      <c r="JWW8" s="4"/>
+      <c r="JXE8" s="4"/>
+      <c r="JXM8" s="4"/>
+      <c r="JXU8" s="4"/>
+      <c r="JYC8" s="4"/>
+      <c r="JYK8" s="4"/>
+      <c r="JYS8" s="4"/>
+      <c r="JZA8" s="4"/>
+      <c r="JZI8" s="4"/>
+      <c r="JZQ8" s="4"/>
+      <c r="JZY8" s="4"/>
+      <c r="KAG8" s="4"/>
+      <c r="KAO8" s="4"/>
+      <c r="KAW8" s="4"/>
+      <c r="KBE8" s="4"/>
+      <c r="KBM8" s="4"/>
+      <c r="KBU8" s="4"/>
+      <c r="KCC8" s="4"/>
+      <c r="KCK8" s="4"/>
+      <c r="KCS8" s="4"/>
+      <c r="KDA8" s="4"/>
+      <c r="KDI8" s="4"/>
+      <c r="KDQ8" s="4"/>
+      <c r="KDY8" s="4"/>
+      <c r="KEG8" s="4"/>
+      <c r="KEO8" s="4"/>
+      <c r="KEW8" s="4"/>
+      <c r="KFE8" s="4"/>
+      <c r="KFM8" s="4"/>
+      <c r="KFU8" s="4"/>
+      <c r="KGC8" s="4"/>
+      <c r="KGK8" s="4"/>
+      <c r="KGS8" s="4"/>
+      <c r="KHA8" s="4"/>
+      <c r="KHI8" s="4"/>
+      <c r="KHQ8" s="4"/>
+      <c r="KHY8" s="4"/>
+      <c r="KIG8" s="4"/>
+      <c r="KIO8" s="4"/>
+      <c r="KIW8" s="4"/>
+      <c r="KJE8" s="4"/>
+      <c r="KJM8" s="4"/>
+      <c r="KJU8" s="4"/>
+      <c r="KKC8" s="4"/>
+      <c r="KKK8" s="4"/>
+      <c r="KKS8" s="4"/>
+      <c r="KLA8" s="4"/>
+      <c r="KLI8" s="4"/>
+      <c r="KLQ8" s="4"/>
+      <c r="KLY8" s="4"/>
+      <c r="KMG8" s="4"/>
+      <c r="KMO8" s="4"/>
+      <c r="KMW8" s="4"/>
+      <c r="KNE8" s="4"/>
+      <c r="KNM8" s="4"/>
+      <c r="KNU8" s="4"/>
+      <c r="KOC8" s="4"/>
+      <c r="KOK8" s="4"/>
+      <c r="KOS8" s="4"/>
+      <c r="KPA8" s="4"/>
+      <c r="KPI8" s="4"/>
+      <c r="KPQ8" s="4"/>
+      <c r="KPY8" s="4"/>
+      <c r="KQG8" s="4"/>
+      <c r="KQO8" s="4"/>
+      <c r="KQW8" s="4"/>
+      <c r="KRE8" s="4"/>
+      <c r="KRM8" s="4"/>
+      <c r="KRU8" s="4"/>
+      <c r="KSC8" s="4"/>
+      <c r="KSK8" s="4"/>
+      <c r="KSS8" s="4"/>
+      <c r="KTA8" s="4"/>
+      <c r="KTI8" s="4"/>
+      <c r="KTQ8" s="4"/>
+      <c r="KTY8" s="4"/>
+      <c r="KUG8" s="4"/>
+      <c r="KUO8" s="4"/>
+      <c r="KUW8" s="4"/>
+      <c r="KVE8" s="4"/>
+      <c r="KVM8" s="4"/>
+      <c r="KVU8" s="4"/>
+      <c r="KWC8" s="4"/>
+      <c r="KWK8" s="4"/>
+      <c r="KWS8" s="4"/>
+      <c r="KXA8" s="4"/>
+      <c r="KXI8" s="4"/>
+      <c r="KXQ8" s="4"/>
+      <c r="KXY8" s="4"/>
+      <c r="KYG8" s="4"/>
+      <c r="KYO8" s="4"/>
+      <c r="KYW8" s="4"/>
+      <c r="KZE8" s="4"/>
+      <c r="KZM8" s="4"/>
+      <c r="KZU8" s="4"/>
+      <c r="LAC8" s="4"/>
+      <c r="LAK8" s="4"/>
+      <c r="LAS8" s="4"/>
+      <c r="LBA8" s="4"/>
+      <c r="LBI8" s="4"/>
+      <c r="LBQ8" s="4"/>
+      <c r="LBY8" s="4"/>
+      <c r="LCG8" s="4"/>
+      <c r="LCO8" s="4"/>
+      <c r="LCW8" s="4"/>
+      <c r="LDE8" s="4"/>
+      <c r="LDM8" s="4"/>
+      <c r="LDU8" s="4"/>
+      <c r="LEC8" s="4"/>
+      <c r="LEK8" s="4"/>
+      <c r="LES8" s="4"/>
+      <c r="LFA8" s="4"/>
+      <c r="LFI8" s="4"/>
+      <c r="LFQ8" s="4"/>
+      <c r="LFY8" s="4"/>
+      <c r="LGG8" s="4"/>
+      <c r="LGO8" s="4"/>
+      <c r="LGW8" s="4"/>
+      <c r="LHE8" s="4"/>
+      <c r="LHM8" s="4"/>
+      <c r="LHU8" s="4"/>
+      <c r="LIC8" s="4"/>
+      <c r="LIK8" s="4"/>
+      <c r="LIS8" s="4"/>
+      <c r="LJA8" s="4"/>
+      <c r="LJI8" s="4"/>
+      <c r="LJQ8" s="4"/>
+      <c r="LJY8" s="4"/>
+      <c r="LKG8" s="4"/>
+      <c r="LKO8" s="4"/>
+      <c r="LKW8" s="4"/>
+      <c r="LLE8" s="4"/>
+      <c r="LLM8" s="4"/>
+      <c r="LLU8" s="4"/>
+      <c r="LMC8" s="4"/>
+      <c r="LMK8" s="4"/>
+      <c r="LMS8" s="4"/>
+      <c r="LNA8" s="4"/>
+      <c r="LNI8" s="4"/>
+      <c r="LNQ8" s="4"/>
+      <c r="LNY8" s="4"/>
+      <c r="LOG8" s="4"/>
+      <c r="LOO8" s="4"/>
+      <c r="LOW8" s="4"/>
+      <c r="LPE8" s="4"/>
+      <c r="LPM8" s="4"/>
+      <c r="LPU8" s="4"/>
+      <c r="LQC8" s="4"/>
+      <c r="LQK8" s="4"/>
+      <c r="LQS8" s="4"/>
+      <c r="LRA8" s="4"/>
+      <c r="LRI8" s="4"/>
+      <c r="LRQ8" s="4"/>
+      <c r="LRY8" s="4"/>
+      <c r="LSG8" s="4"/>
+      <c r="LSO8" s="4"/>
+      <c r="LSW8" s="4"/>
+      <c r="LTE8" s="4"/>
+      <c r="LTM8" s="4"/>
+      <c r="LTU8" s="4"/>
+      <c r="LUC8" s="4"/>
+      <c r="LUK8" s="4"/>
+      <c r="LUS8" s="4"/>
+      <c r="LVA8" s="4"/>
+      <c r="LVI8" s="4"/>
+      <c r="LVQ8" s="4"/>
+      <c r="LVY8" s="4"/>
+      <c r="LWG8" s="4"/>
+      <c r="LWO8" s="4"/>
+      <c r="LWW8" s="4"/>
+      <c r="LXE8" s="4"/>
+      <c r="LXM8" s="4"/>
+      <c r="LXU8" s="4"/>
+      <c r="LYC8" s="4"/>
+      <c r="LYK8" s="4"/>
+      <c r="LYS8" s="4"/>
+      <c r="LZA8" s="4"/>
+      <c r="LZI8" s="4"/>
+      <c r="LZQ8" s="4"/>
+      <c r="LZY8" s="4"/>
+      <c r="MAG8" s="4"/>
+      <c r="MAO8" s="4"/>
+      <c r="MAW8" s="4"/>
+      <c r="MBE8" s="4"/>
+      <c r="MBM8" s="4"/>
+      <c r="MBU8" s="4"/>
+      <c r="MCC8" s="4"/>
+      <c r="MCK8" s="4"/>
+      <c r="MCS8" s="4"/>
+      <c r="MDA8" s="4"/>
+      <c r="MDI8" s="4"/>
+      <c r="MDQ8" s="4"/>
+      <c r="MDY8" s="4"/>
+      <c r="MEG8" s="4"/>
+      <c r="MEO8" s="4"/>
+      <c r="MEW8" s="4"/>
+      <c r="MFE8" s="4"/>
+      <c r="MFM8" s="4"/>
+      <c r="MFU8" s="4"/>
+      <c r="MGC8" s="4"/>
+      <c r="MGK8" s="4"/>
+      <c r="MGS8" s="4"/>
+      <c r="MHA8" s="4"/>
+      <c r="MHI8" s="4"/>
+      <c r="MHQ8" s="4"/>
+      <c r="MHY8" s="4"/>
+      <c r="MIG8" s="4"/>
+      <c r="MIO8" s="4"/>
+      <c r="MIW8" s="4"/>
+      <c r="MJE8" s="4"/>
+      <c r="MJM8" s="4"/>
+      <c r="MJU8" s="4"/>
+      <c r="MKC8" s="4"/>
+      <c r="MKK8" s="4"/>
+      <c r="MKS8" s="4"/>
+      <c r="MLA8" s="4"/>
+      <c r="MLI8" s="4"/>
+      <c r="MLQ8" s="4"/>
+      <c r="MLY8" s="4"/>
+      <c r="MMG8" s="4"/>
+      <c r="MMO8" s="4"/>
+      <c r="MMW8" s="4"/>
+      <c r="MNE8" s="4"/>
+      <c r="MNM8" s="4"/>
+      <c r="MNU8" s="4"/>
+      <c r="MOC8" s="4"/>
+      <c r="MOK8" s="4"/>
+      <c r="MOS8" s="4"/>
+      <c r="MPA8" s="4"/>
+      <c r="MPI8" s="4"/>
+      <c r="MPQ8" s="4"/>
+      <c r="MPY8" s="4"/>
+      <c r="MQG8" s="4"/>
+      <c r="MQO8" s="4"/>
+      <c r="MQW8" s="4"/>
+      <c r="MRE8" s="4"/>
+      <c r="MRM8" s="4"/>
+      <c r="MRU8" s="4"/>
+      <c r="MSC8" s="4"/>
+      <c r="MSK8" s="4"/>
+      <c r="MSS8" s="4"/>
+      <c r="MTA8" s="4"/>
+      <c r="MTI8" s="4"/>
+      <c r="MTQ8" s="4"/>
+      <c r="MTY8" s="4"/>
+      <c r="MUG8" s="4"/>
+      <c r="MUO8" s="4"/>
+      <c r="MUW8" s="4"/>
+      <c r="MVE8" s="4"/>
+      <c r="MVM8" s="4"/>
+      <c r="MVU8" s="4"/>
+      <c r="MWC8" s="4"/>
+      <c r="MWK8" s="4"/>
+      <c r="MWS8" s="4"/>
+      <c r="MXA8" s="4"/>
+      <c r="MXI8" s="4"/>
+      <c r="MXQ8" s="4"/>
+      <c r="MXY8" s="4"/>
+      <c r="MYG8" s="4"/>
+      <c r="MYO8" s="4"/>
+      <c r="MYW8" s="4"/>
+      <c r="MZE8" s="4"/>
+      <c r="MZM8" s="4"/>
+      <c r="MZU8" s="4"/>
+      <c r="NAC8" s="4"/>
+      <c r="NAK8" s="4"/>
+      <c r="NAS8" s="4"/>
+      <c r="NBA8" s="4"/>
+      <c r="NBI8" s="4"/>
+      <c r="NBQ8" s="4"/>
+      <c r="NBY8" s="4"/>
+      <c r="NCG8" s="4"/>
+      <c r="NCO8" s="4"/>
+      <c r="NCW8" s="4"/>
+      <c r="NDE8" s="4"/>
+      <c r="NDM8" s="4"/>
+      <c r="NDU8" s="4"/>
+      <c r="NEC8" s="4"/>
+      <c r="NEK8" s="4"/>
+      <c r="NES8" s="4"/>
+      <c r="NFA8" s="4"/>
+      <c r="NFI8" s="4"/>
+      <c r="NFQ8" s="4"/>
+      <c r="NFY8" s="4"/>
+      <c r="NGG8" s="4"/>
+      <c r="NGO8" s="4"/>
+      <c r="NGW8" s="4"/>
+      <c r="NHE8" s="4"/>
+      <c r="NHM8" s="4"/>
+      <c r="NHU8" s="4"/>
+      <c r="NIC8" s="4"/>
+      <c r="NIK8" s="4"/>
+      <c r="NIS8" s="4"/>
+      <c r="NJA8" s="4"/>
+      <c r="NJI8" s="4"/>
+      <c r="NJQ8" s="4"/>
+      <c r="NJY8" s="4"/>
+      <c r="NKG8" s="4"/>
+      <c r="NKO8" s="4"/>
+      <c r="NKW8" s="4"/>
+      <c r="NLE8" s="4"/>
+      <c r="NLM8" s="4"/>
+      <c r="NLU8" s="4"/>
+      <c r="NMC8" s="4"/>
+      <c r="NMK8" s="4"/>
+      <c r="NMS8" s="4"/>
+      <c r="NNA8" s="4"/>
+      <c r="NNI8" s="4"/>
+      <c r="NNQ8" s="4"/>
+      <c r="NNY8" s="4"/>
+      <c r="NOG8" s="4"/>
+      <c r="NOO8" s="4"/>
+      <c r="NOW8" s="4"/>
+      <c r="NPE8" s="4"/>
+      <c r="NPM8" s="4"/>
+      <c r="NPU8" s="4"/>
+      <c r="NQC8" s="4"/>
+      <c r="NQK8" s="4"/>
+      <c r="NQS8" s="4"/>
+      <c r="NRA8" s="4"/>
+      <c r="NRI8" s="4"/>
+      <c r="NRQ8" s="4"/>
+      <c r="NRY8" s="4"/>
+      <c r="NSG8" s="4"/>
+      <c r="NSO8" s="4"/>
+      <c r="NSW8" s="4"/>
+      <c r="NTE8" s="4"/>
+      <c r="NTM8" s="4"/>
+      <c r="NTU8" s="4"/>
+      <c r="NUC8" s="4"/>
+      <c r="NUK8" s="4"/>
+      <c r="NUS8" s="4"/>
+      <c r="NVA8" s="4"/>
+      <c r="NVI8" s="4"/>
+      <c r="NVQ8" s="4"/>
+      <c r="NVY8" s="4"/>
+      <c r="NWG8" s="4"/>
+      <c r="NWO8" s="4"/>
+      <c r="NWW8" s="4"/>
+      <c r="NXE8" s="4"/>
+      <c r="NXM8" s="4"/>
+      <c r="NXU8" s="4"/>
+      <c r="NYC8" s="4"/>
+      <c r="NYK8" s="4"/>
+      <c r="NYS8" s="4"/>
+      <c r="NZA8" s="4"/>
+      <c r="NZI8" s="4"/>
+      <c r="NZQ8" s="4"/>
+      <c r="NZY8" s="4"/>
+      <c r="OAG8" s="4"/>
+      <c r="OAO8" s="4"/>
+      <c r="OAW8" s="4"/>
+      <c r="OBE8" s="4"/>
+      <c r="OBM8" s="4"/>
+      <c r="OBU8" s="4"/>
+      <c r="OCC8" s="4"/>
+      <c r="OCK8" s="4"/>
+      <c r="OCS8" s="4"/>
+      <c r="ODA8" s="4"/>
+      <c r="ODI8" s="4"/>
+      <c r="ODQ8" s="4"/>
+      <c r="ODY8" s="4"/>
+      <c r="OEG8" s="4"/>
+      <c r="OEO8" s="4"/>
+      <c r="OEW8" s="4"/>
+      <c r="OFE8" s="4"/>
+      <c r="OFM8" s="4"/>
+      <c r="OFU8" s="4"/>
+      <c r="OGC8" s="4"/>
+      <c r="OGK8" s="4"/>
+      <c r="OGS8" s="4"/>
+      <c r="OHA8" s="4"/>
+      <c r="OHI8" s="4"/>
+      <c r="OHQ8" s="4"/>
+      <c r="OHY8" s="4"/>
+      <c r="OIG8" s="4"/>
+      <c r="OIO8" s="4"/>
+      <c r="OIW8" s="4"/>
+      <c r="OJE8" s="4"/>
+      <c r="OJM8" s="4"/>
+      <c r="OJU8" s="4"/>
+      <c r="OKC8" s="4"/>
+      <c r="OKK8" s="4"/>
+      <c r="OKS8" s="4"/>
+      <c r="OLA8" s="4"/>
+      <c r="OLI8" s="4"/>
+      <c r="OLQ8" s="4"/>
+      <c r="OLY8" s="4"/>
+      <c r="OMG8" s="4"/>
+      <c r="OMO8" s="4"/>
+      <c r="OMW8" s="4"/>
+      <c r="ONE8" s="4"/>
+      <c r="ONM8" s="4"/>
+      <c r="ONU8" s="4"/>
+      <c r="OOC8" s="4"/>
+      <c r="OOK8" s="4"/>
+      <c r="OOS8" s="4"/>
+      <c r="OPA8" s="4"/>
+      <c r="OPI8" s="4"/>
+      <c r="OPQ8" s="4"/>
+      <c r="OPY8" s="4"/>
+      <c r="OQG8" s="4"/>
+      <c r="OQO8" s="4"/>
+      <c r="OQW8" s="4"/>
+      <c r="ORE8" s="4"/>
+      <c r="ORM8" s="4"/>
+      <c r="ORU8" s="4"/>
+      <c r="OSC8" s="4"/>
+      <c r="OSK8" s="4"/>
+      <c r="OSS8" s="4"/>
+      <c r="OTA8" s="4"/>
+      <c r="OTI8" s="4"/>
+      <c r="OTQ8" s="4"/>
+      <c r="OTY8" s="4"/>
+      <c r="OUG8" s="4"/>
+      <c r="OUO8" s="4"/>
+      <c r="OUW8" s="4"/>
+      <c r="OVE8" s="4"/>
+      <c r="OVM8" s="4"/>
+      <c r="OVU8" s="4"/>
+      <c r="OWC8" s="4"/>
+      <c r="OWK8" s="4"/>
+      <c r="OWS8" s="4"/>
+      <c r="OXA8" s="4"/>
+      <c r="OXI8" s="4"/>
+      <c r="OXQ8" s="4"/>
+      <c r="OXY8" s="4"/>
+      <c r="OYG8" s="4"/>
+      <c r="OYO8" s="4"/>
+      <c r="OYW8" s="4"/>
+      <c r="OZE8" s="4"/>
+      <c r="OZM8" s="4"/>
+      <c r="OZU8" s="4"/>
+      <c r="PAC8" s="4"/>
+      <c r="PAK8" s="4"/>
+      <c r="PAS8" s="4"/>
+      <c r="PBA8" s="4"/>
+      <c r="PBI8" s="4"/>
+      <c r="PBQ8" s="4"/>
+      <c r="PBY8" s="4"/>
+      <c r="PCG8" s="4"/>
+      <c r="PCO8" s="4"/>
+      <c r="PCW8" s="4"/>
+      <c r="PDE8" s="4"/>
+      <c r="PDM8" s="4"/>
+      <c r="PDU8" s="4"/>
+      <c r="PEC8" s="4"/>
+      <c r="PEK8" s="4"/>
+      <c r="PES8" s="4"/>
+      <c r="PFA8" s="4"/>
+      <c r="PFI8" s="4"/>
+      <c r="PFQ8" s="4"/>
+      <c r="PFY8" s="4"/>
+      <c r="PGG8" s="4"/>
+      <c r="PGO8" s="4"/>
+      <c r="PGW8" s="4"/>
+      <c r="PHE8" s="4"/>
+      <c r="PHM8" s="4"/>
+      <c r="PHU8" s="4"/>
+      <c r="PIC8" s="4"/>
+      <c r="PIK8" s="4"/>
+      <c r="PIS8" s="4"/>
+      <c r="PJA8" s="4"/>
+      <c r="PJI8" s="4"/>
+      <c r="PJQ8" s="4"/>
+      <c r="PJY8" s="4"/>
+      <c r="PKG8" s="4"/>
+      <c r="PKO8" s="4"/>
+      <c r="PKW8" s="4"/>
+      <c r="PLE8" s="4"/>
+      <c r="PLM8" s="4"/>
+      <c r="PLU8" s="4"/>
+      <c r="PMC8" s="4"/>
+      <c r="PMK8" s="4"/>
+      <c r="PMS8" s="4"/>
+      <c r="PNA8" s="4"/>
+      <c r="PNI8" s="4"/>
+      <c r="PNQ8" s="4"/>
+      <c r="PNY8" s="4"/>
+      <c r="POG8" s="4"/>
+      <c r="POO8" s="4"/>
+      <c r="POW8" s="4"/>
+      <c r="PPE8" s="4"/>
+      <c r="PPM8" s="4"/>
+      <c r="PPU8" s="4"/>
+      <c r="PQC8" s="4"/>
+      <c r="PQK8" s="4"/>
+      <c r="PQS8" s="4"/>
+      <c r="PRA8" s="4"/>
+      <c r="PRI8" s="4"/>
+      <c r="PRQ8" s="4"/>
+      <c r="PRY8" s="4"/>
+      <c r="PSG8" s="4"/>
+      <c r="PSO8" s="4"/>
+      <c r="PSW8" s="4"/>
+      <c r="PTE8" s="4"/>
+      <c r="PTM8" s="4"/>
+      <c r="PTU8" s="4"/>
+      <c r="PUC8" s="4"/>
+      <c r="PUK8" s="4"/>
+      <c r="PUS8" s="4"/>
+      <c r="PVA8" s="4"/>
+      <c r="PVI8" s="4"/>
+      <c r="PVQ8" s="4"/>
+      <c r="PVY8" s="4"/>
+      <c r="PWG8" s="4"/>
+      <c r="PWO8" s="4"/>
+      <c r="PWW8" s="4"/>
+      <c r="PXE8" s="4"/>
+      <c r="PXM8" s="4"/>
+      <c r="PXU8" s="4"/>
+      <c r="PYC8" s="4"/>
+      <c r="PYK8" s="4"/>
+      <c r="PYS8" s="4"/>
+      <c r="PZA8" s="4"/>
+      <c r="PZI8" s="4"/>
+      <c r="PZQ8" s="4"/>
+      <c r="PZY8" s="4"/>
+      <c r="QAG8" s="4"/>
+      <c r="QAO8" s="4"/>
+      <c r="QAW8" s="4"/>
+      <c r="QBE8" s="4"/>
+      <c r="QBM8" s="4"/>
+      <c r="QBU8" s="4"/>
+      <c r="QCC8" s="4"/>
+      <c r="QCK8" s="4"/>
+      <c r="QCS8" s="4"/>
+      <c r="QDA8" s="4"/>
+      <c r="QDI8" s="4"/>
+      <c r="QDQ8" s="4"/>
+      <c r="QDY8" s="4"/>
+      <c r="QEG8" s="4"/>
+      <c r="QEO8" s="4"/>
+      <c r="QEW8" s="4"/>
+      <c r="QFE8" s="4"/>
+      <c r="QFM8" s="4"/>
+      <c r="QFU8" s="4"/>
+      <c r="QGC8" s="4"/>
+      <c r="QGK8" s="4"/>
+      <c r="QGS8" s="4"/>
+      <c r="QHA8" s="4"/>
+      <c r="QHI8" s="4"/>
+      <c r="QHQ8" s="4"/>
+      <c r="QHY8" s="4"/>
+      <c r="QIG8" s="4"/>
+      <c r="QIO8" s="4"/>
+      <c r="QIW8" s="4"/>
+      <c r="QJE8" s="4"/>
+      <c r="QJM8" s="4"/>
+      <c r="QJU8" s="4"/>
+      <c r="QKC8" s="4"/>
+      <c r="QKK8" s="4"/>
+      <c r="QKS8" s="4"/>
+      <c r="QLA8" s="4"/>
+      <c r="QLI8" s="4"/>
+      <c r="QLQ8" s="4"/>
+      <c r="QLY8" s="4"/>
+      <c r="QMG8" s="4"/>
+      <c r="QMO8" s="4"/>
+      <c r="QMW8" s="4"/>
+      <c r="QNE8" s="4"/>
+      <c r="QNM8" s="4"/>
+      <c r="QNU8" s="4"/>
+      <c r="QOC8" s="4"/>
+      <c r="QOK8" s="4"/>
+      <c r="QOS8" s="4"/>
+      <c r="QPA8" s="4"/>
+      <c r="QPI8" s="4"/>
+      <c r="QPQ8" s="4"/>
+      <c r="QPY8" s="4"/>
+      <c r="QQG8" s="4"/>
+      <c r="QQO8" s="4"/>
+      <c r="QQW8" s="4"/>
+      <c r="QRE8" s="4"/>
+      <c r="QRM8" s="4"/>
+      <c r="QRU8" s="4"/>
+      <c r="QSC8" s="4"/>
+      <c r="QSK8" s="4"/>
+      <c r="QSS8" s="4"/>
+      <c r="QTA8" s="4"/>
+      <c r="QTI8" s="4"/>
+      <c r="QTQ8" s="4"/>
+      <c r="QTY8" s="4"/>
+      <c r="QUG8" s="4"/>
+      <c r="QUO8" s="4"/>
+      <c r="QUW8" s="4"/>
+      <c r="QVE8" s="4"/>
+      <c r="QVM8" s="4"/>
+      <c r="QVU8" s="4"/>
+      <c r="QWC8" s="4"/>
+      <c r="QWK8" s="4"/>
+      <c r="QWS8" s="4"/>
+      <c r="QXA8" s="4"/>
+      <c r="QXI8" s="4"/>
+      <c r="QXQ8" s="4"/>
+      <c r="QXY8" s="4"/>
+      <c r="QYG8" s="4"/>
+      <c r="QYO8" s="4"/>
+      <c r="QYW8" s="4"/>
+      <c r="QZE8" s="4"/>
+      <c r="QZM8" s="4"/>
+      <c r="QZU8" s="4"/>
+      <c r="RAC8" s="4"/>
+      <c r="RAK8" s="4"/>
+      <c r="RAS8" s="4"/>
+      <c r="RBA8" s="4"/>
+      <c r="RBI8" s="4"/>
+      <c r="RBQ8" s="4"/>
+      <c r="RBY8" s="4"/>
+      <c r="RCG8" s="4"/>
+      <c r="RCO8" s="4"/>
+      <c r="RCW8" s="4"/>
+      <c r="RDE8" s="4"/>
+      <c r="RDM8" s="4"/>
+      <c r="RDU8" s="4"/>
+      <c r="REC8" s="4"/>
+      <c r="REK8" s="4"/>
+      <c r="RES8" s="4"/>
+      <c r="RFA8" s="4"/>
+      <c r="RFI8" s="4"/>
+      <c r="RFQ8" s="4"/>
+      <c r="RFY8" s="4"/>
+      <c r="RGG8" s="4"/>
+      <c r="RGO8" s="4"/>
+      <c r="RGW8" s="4"/>
+      <c r="RHE8" s="4"/>
+      <c r="RHM8" s="4"/>
+      <c r="RHU8" s="4"/>
+      <c r="RIC8" s="4"/>
+      <c r="RIK8" s="4"/>
+      <c r="RIS8" s="4"/>
+      <c r="RJA8" s="4"/>
+      <c r="RJI8" s="4"/>
+      <c r="RJQ8" s="4"/>
+      <c r="RJY8" s="4"/>
+      <c r="RKG8" s="4"/>
+      <c r="RKO8" s="4"/>
+      <c r="RKW8" s="4"/>
+      <c r="RLE8" s="4"/>
+      <c r="RLM8" s="4"/>
+      <c r="RLU8" s="4"/>
+      <c r="RMC8" s="4"/>
+      <c r="RMK8" s="4"/>
+      <c r="RMS8" s="4"/>
+      <c r="RNA8" s="4"/>
+      <c r="RNI8" s="4"/>
+      <c r="RNQ8" s="4"/>
+      <c r="RNY8" s="4"/>
+      <c r="ROG8" s="4"/>
+      <c r="ROO8" s="4"/>
+      <c r="ROW8" s="4"/>
+      <c r="RPE8" s="4"/>
+      <c r="RPM8" s="4"/>
+      <c r="RPU8" s="4"/>
+      <c r="RQC8" s="4"/>
+      <c r="RQK8" s="4"/>
+      <c r="RQS8" s="4"/>
+      <c r="RRA8" s="4"/>
+      <c r="RRI8" s="4"/>
+      <c r="RRQ8" s="4"/>
+      <c r="RRY8" s="4"/>
+      <c r="RSG8" s="4"/>
+      <c r="RSO8" s="4"/>
+      <c r="RSW8" s="4"/>
+      <c r="RTE8" s="4"/>
+      <c r="RTM8" s="4"/>
+      <c r="RTU8" s="4"/>
+      <c r="RUC8" s="4"/>
+      <c r="RUK8" s="4"/>
+      <c r="RUS8" s="4"/>
+      <c r="RVA8" s="4"/>
+      <c r="RVI8" s="4"/>
+      <c r="RVQ8" s="4"/>
+      <c r="RVY8" s="4"/>
+      <c r="RWG8" s="4"/>
+      <c r="RWO8" s="4"/>
+      <c r="RWW8" s="4"/>
+      <c r="RXE8" s="4"/>
+      <c r="RXM8" s="4"/>
+      <c r="RXU8" s="4"/>
+      <c r="RYC8" s="4"/>
+      <c r="RYK8" s="4"/>
+      <c r="RYS8" s="4"/>
+      <c r="RZA8" s="4"/>
+      <c r="RZI8" s="4"/>
+      <c r="RZQ8" s="4"/>
+      <c r="RZY8" s="4"/>
+      <c r="SAG8" s="4"/>
+      <c r="SAO8" s="4"/>
+      <c r="SAW8" s="4"/>
+      <c r="SBE8" s="4"/>
+      <c r="SBM8" s="4"/>
+      <c r="SBU8" s="4"/>
+      <c r="SCC8" s="4"/>
+      <c r="SCK8" s="4"/>
+      <c r="SCS8" s="4"/>
+      <c r="SDA8" s="4"/>
+      <c r="SDI8" s="4"/>
+      <c r="SDQ8" s="4"/>
+      <c r="SDY8" s="4"/>
+      <c r="SEG8" s="4"/>
+      <c r="SEO8" s="4"/>
+      <c r="SEW8" s="4"/>
+      <c r="SFE8" s="4"/>
+      <c r="SFM8" s="4"/>
+      <c r="SFU8" s="4"/>
+      <c r="SGC8" s="4"/>
+      <c r="SGK8" s="4"/>
+      <c r="SGS8" s="4"/>
+      <c r="SHA8" s="4"/>
+      <c r="SHI8" s="4"/>
+      <c r="SHQ8" s="4"/>
+      <c r="SHY8" s="4"/>
+      <c r="SIG8" s="4"/>
+      <c r="SIO8" s="4"/>
+      <c r="SIW8" s="4"/>
+      <c r="SJE8" s="4"/>
+      <c r="SJM8" s="4"/>
+      <c r="SJU8" s="4"/>
+      <c r="SKC8" s="4"/>
+      <c r="SKK8" s="4"/>
+      <c r="SKS8" s="4"/>
+      <c r="SLA8" s="4"/>
+      <c r="SLI8" s="4"/>
+      <c r="SLQ8" s="4"/>
+      <c r="SLY8" s="4"/>
+      <c r="SMG8" s="4"/>
+      <c r="SMO8" s="4"/>
+      <c r="SMW8" s="4"/>
+      <c r="SNE8" s="4"/>
+      <c r="SNM8" s="4"/>
+      <c r="SNU8" s="4"/>
+      <c r="SOC8" s="4"/>
+      <c r="SOK8" s="4"/>
+      <c r="SOS8" s="4"/>
+      <c r="SPA8" s="4"/>
+      <c r="SPI8" s="4"/>
+      <c r="SPQ8" s="4"/>
+      <c r="SPY8" s="4"/>
+      <c r="SQG8" s="4"/>
+      <c r="SQO8" s="4"/>
+      <c r="SQW8" s="4"/>
+      <c r="SRE8" s="4"/>
+      <c r="SRM8" s="4"/>
+      <c r="SRU8" s="4"/>
+      <c r="SSC8" s="4"/>
+      <c r="SSK8" s="4"/>
+      <c r="SSS8" s="4"/>
+      <c r="STA8" s="4"/>
+      <c r="STI8" s="4"/>
+      <c r="STQ8" s="4"/>
+      <c r="STY8" s="4"/>
+      <c r="SUG8" s="4"/>
+      <c r="SUO8" s="4"/>
+      <c r="SUW8" s="4"/>
+      <c r="SVE8" s="4"/>
+      <c r="SVM8" s="4"/>
+      <c r="SVU8" s="4"/>
+      <c r="SWC8" s="4"/>
+      <c r="SWK8" s="4"/>
+      <c r="SWS8" s="4"/>
+      <c r="SXA8" s="4"/>
+      <c r="SXI8" s="4"/>
+      <c r="SXQ8" s="4"/>
+      <c r="SXY8" s="4"/>
+      <c r="SYG8" s="4"/>
+      <c r="SYO8" s="4"/>
+      <c r="SYW8" s="4"/>
+      <c r="SZE8" s="4"/>
+      <c r="SZM8" s="4"/>
+      <c r="SZU8" s="4"/>
+      <c r="TAC8" s="4"/>
+      <c r="TAK8" s="4"/>
+      <c r="TAS8" s="4"/>
+      <c r="TBA8" s="4"/>
+      <c r="TBI8" s="4"/>
+      <c r="TBQ8" s="4"/>
+      <c r="TBY8" s="4"/>
+      <c r="TCG8" s="4"/>
+      <c r="TCO8" s="4"/>
+      <c r="TCW8" s="4"/>
+      <c r="TDE8" s="4"/>
+      <c r="TDM8" s="4"/>
+      <c r="TDU8" s="4"/>
+      <c r="TEC8" s="4"/>
+      <c r="TEK8" s="4"/>
+      <c r="TES8" s="4"/>
+      <c r="TFA8" s="4"/>
+      <c r="TFI8" s="4"/>
+      <c r="TFQ8" s="4"/>
+      <c r="TFY8" s="4"/>
+      <c r="TGG8" s="4"/>
+      <c r="TGO8" s="4"/>
+      <c r="TGW8" s="4"/>
+      <c r="THE8" s="4"/>
+      <c r="THM8" s="4"/>
+      <c r="THU8" s="4"/>
+      <c r="TIC8" s="4"/>
+      <c r="TIK8" s="4"/>
+      <c r="TIS8" s="4"/>
+      <c r="TJA8" s="4"/>
+      <c r="TJI8" s="4"/>
+      <c r="TJQ8" s="4"/>
+      <c r="TJY8" s="4"/>
+      <c r="TKG8" s="4"/>
+      <c r="TKO8" s="4"/>
+      <c r="TKW8" s="4"/>
+      <c r="TLE8" s="4"/>
+      <c r="TLM8" s="4"/>
+      <c r="TLU8" s="4"/>
+      <c r="TMC8" s="4"/>
+      <c r="TMK8" s="4"/>
+      <c r="TMS8" s="4"/>
+      <c r="TNA8" s="4"/>
+      <c r="TNI8" s="4"/>
+      <c r="TNQ8" s="4"/>
+      <c r="TNY8" s="4"/>
+      <c r="TOG8" s="4"/>
+      <c r="TOO8" s="4"/>
+      <c r="TOW8" s="4"/>
+      <c r="TPE8" s="4"/>
+      <c r="TPM8" s="4"/>
+      <c r="TPU8" s="4"/>
+      <c r="TQC8" s="4"/>
+      <c r="TQK8" s="4"/>
+      <c r="TQS8" s="4"/>
+      <c r="TRA8" s="4"/>
+      <c r="TRI8" s="4"/>
+      <c r="TRQ8" s="4"/>
+      <c r="TRY8" s="4"/>
+      <c r="TSG8" s="4"/>
+      <c r="TSO8" s="4"/>
+      <c r="TSW8" s="4"/>
+      <c r="TTE8" s="4"/>
+      <c r="TTM8" s="4"/>
+      <c r="TTU8" s="4"/>
+      <c r="TUC8" s="4"/>
+      <c r="TUK8" s="4"/>
+      <c r="TUS8" s="4"/>
+      <c r="TVA8" s="4"/>
+      <c r="TVI8" s="4"/>
+      <c r="TVQ8" s="4"/>
+      <c r="TVY8" s="4"/>
+      <c r="TWG8" s="4"/>
+      <c r="TWO8" s="4"/>
+      <c r="TWW8" s="4"/>
+      <c r="TXE8" s="4"/>
+      <c r="TXM8" s="4"/>
+      <c r="TXU8" s="4"/>
+      <c r="TYC8" s="4"/>
+      <c r="TYK8" s="4"/>
+      <c r="TYS8" s="4"/>
+      <c r="TZA8" s="4"/>
+      <c r="TZI8" s="4"/>
+      <c r="TZQ8" s="4"/>
+      <c r="TZY8" s="4"/>
+      <c r="UAG8" s="4"/>
+      <c r="UAO8" s="4"/>
+      <c r="UAW8" s="4"/>
+      <c r="UBE8" s="4"/>
+      <c r="UBM8" s="4"/>
+      <c r="UBU8" s="4"/>
+      <c r="UCC8" s="4"/>
+      <c r="UCK8" s="4"/>
+      <c r="UCS8" s="4"/>
+      <c r="UDA8" s="4"/>
+      <c r="UDI8" s="4"/>
+      <c r="UDQ8" s="4"/>
+      <c r="UDY8" s="4"/>
+      <c r="UEG8" s="4"/>
+      <c r="UEO8" s="4"/>
+      <c r="UEW8" s="4"/>
+      <c r="UFE8" s="4"/>
+      <c r="UFM8" s="4"/>
+      <c r="UFU8" s="4"/>
+      <c r="UGC8" s="4"/>
+      <c r="UGK8" s="4"/>
+      <c r="UGS8" s="4"/>
+      <c r="UHA8" s="4"/>
+      <c r="UHI8" s="4"/>
+      <c r="UHQ8" s="4"/>
+      <c r="UHY8" s="4"/>
+      <c r="UIG8" s="4"/>
+      <c r="UIO8" s="4"/>
+      <c r="UIW8" s="4"/>
+      <c r="UJE8" s="4"/>
+      <c r="UJM8" s="4"/>
+      <c r="UJU8" s="4"/>
+      <c r="UKC8" s="4"/>
+      <c r="UKK8" s="4"/>
+      <c r="UKS8" s="4"/>
+      <c r="ULA8" s="4"/>
+      <c r="ULI8" s="4"/>
+      <c r="ULQ8" s="4"/>
+      <c r="ULY8" s="4"/>
+      <c r="UMG8" s="4"/>
+      <c r="UMO8" s="4"/>
+      <c r="UMW8" s="4"/>
+      <c r="UNE8" s="4"/>
+      <c r="UNM8" s="4"/>
+      <c r="UNU8" s="4"/>
+      <c r="UOC8" s="4"/>
+      <c r="UOK8" s="4"/>
+      <c r="UOS8" s="4"/>
+      <c r="UPA8" s="4"/>
+      <c r="UPI8" s="4"/>
+      <c r="UPQ8" s="4"/>
+      <c r="UPY8" s="4"/>
+      <c r="UQG8" s="4"/>
+      <c r="UQO8" s="4"/>
+      <c r="UQW8" s="4"/>
+      <c r="URE8" s="4"/>
+      <c r="URM8" s="4"/>
+      <c r="URU8" s="4"/>
+      <c r="USC8" s="4"/>
+      <c r="USK8" s="4"/>
+      <c r="USS8" s="4"/>
+      <c r="UTA8" s="4"/>
+      <c r="UTI8" s="4"/>
+      <c r="UTQ8" s="4"/>
+      <c r="UTY8" s="4"/>
+      <c r="UUG8" s="4"/>
+      <c r="UUO8" s="4"/>
+      <c r="UUW8" s="4"/>
+      <c r="UVE8" s="4"/>
+      <c r="UVM8" s="4"/>
+      <c r="UVU8" s="4"/>
+      <c r="UWC8" s="4"/>
+      <c r="UWK8" s="4"/>
+      <c r="UWS8" s="4"/>
+      <c r="UXA8" s="4"/>
+      <c r="UXI8" s="4"/>
+      <c r="UXQ8" s="4"/>
+      <c r="UXY8" s="4"/>
+      <c r="UYG8" s="4"/>
+      <c r="UYO8" s="4"/>
+      <c r="UYW8" s="4"/>
+      <c r="UZE8" s="4"/>
+      <c r="UZM8" s="4"/>
+      <c r="UZU8" s="4"/>
+      <c r="VAC8" s="4"/>
+      <c r="VAK8" s="4"/>
+      <c r="VAS8" s="4"/>
+      <c r="VBA8" s="4"/>
+      <c r="VBI8" s="4"/>
+      <c r="VBQ8" s="4"/>
+      <c r="VBY8" s="4"/>
+      <c r="VCG8" s="4"/>
+      <c r="VCO8" s="4"/>
+      <c r="VCW8" s="4"/>
+      <c r="VDE8" s="4"/>
+      <c r="VDM8" s="4"/>
+      <c r="VDU8" s="4"/>
+      <c r="VEC8" s="4"/>
+      <c r="VEK8" s="4"/>
+      <c r="VES8" s="4"/>
+      <c r="VFA8" s="4"/>
+      <c r="VFI8" s="4"/>
+      <c r="VFQ8" s="4"/>
+      <c r="VFY8" s="4"/>
+      <c r="VGG8" s="4"/>
+      <c r="VGO8" s="4"/>
+      <c r="VGW8" s="4"/>
+      <c r="VHE8" s="4"/>
+      <c r="VHM8" s="4"/>
+      <c r="VHU8" s="4"/>
+      <c r="VIC8" s="4"/>
+      <c r="VIK8" s="4"/>
+      <c r="VIS8" s="4"/>
+      <c r="VJA8" s="4"/>
+      <c r="VJI8" s="4"/>
+      <c r="VJQ8" s="4"/>
+      <c r="VJY8" s="4"/>
+      <c r="VKG8" s="4"/>
+      <c r="VKO8" s="4"/>
+      <c r="VKW8" s="4"/>
+      <c r="VLE8" s="4"/>
+      <c r="VLM8" s="4"/>
+      <c r="VLU8" s="4"/>
+      <c r="VMC8" s="4"/>
+      <c r="VMK8" s="4"/>
+      <c r="VMS8" s="4"/>
+      <c r="VNA8" s="4"/>
+      <c r="VNI8" s="4"/>
+      <c r="VNQ8" s="4"/>
+      <c r="VNY8" s="4"/>
+      <c r="VOG8" s="4"/>
+      <c r="VOO8" s="4"/>
+      <c r="VOW8" s="4"/>
+      <c r="VPE8" s="4"/>
+      <c r="VPM8" s="4"/>
+      <c r="VPU8" s="4"/>
+      <c r="VQC8" s="4"/>
+      <c r="VQK8" s="4"/>
+      <c r="VQS8" s="4"/>
+      <c r="VRA8" s="4"/>
+      <c r="VRI8" s="4"/>
+      <c r="VRQ8" s="4"/>
+      <c r="VRY8" s="4"/>
+      <c r="VSG8" s="4"/>
+      <c r="VSO8" s="4"/>
+      <c r="VSW8" s="4"/>
+      <c r="VTE8" s="4"/>
+      <c r="VTM8" s="4"/>
+      <c r="VTU8" s="4"/>
+      <c r="VUC8" s="4"/>
+      <c r="VUK8" s="4"/>
+      <c r="VUS8" s="4"/>
+      <c r="VVA8" s="4"/>
+      <c r="VVI8" s="4"/>
+      <c r="VVQ8" s="4"/>
+      <c r="VVY8" s="4"/>
+      <c r="VWG8" s="4"/>
+      <c r="VWO8" s="4"/>
+      <c r="VWW8" s="4"/>
+      <c r="VXE8" s="4"/>
+      <c r="VXM8" s="4"/>
+      <c r="VXU8" s="4"/>
+      <c r="VYC8" s="4"/>
+      <c r="VYK8" s="4"/>
+      <c r="VYS8" s="4"/>
+      <c r="VZA8" s="4"/>
+      <c r="VZI8" s="4"/>
+      <c r="VZQ8" s="4"/>
+      <c r="VZY8" s="4"/>
+      <c r="WAG8" s="4"/>
+      <c r="WAO8" s="4"/>
+      <c r="WAW8" s="4"/>
+      <c r="WBE8" s="4"/>
+      <c r="WBM8" s="4"/>
+      <c r="WBU8" s="4"/>
+      <c r="WCC8" s="4"/>
+      <c r="WCK8" s="4"/>
+      <c r="WCS8" s="4"/>
+      <c r="WDA8" s="4"/>
+      <c r="WDI8" s="4"/>
+      <c r="WDQ8" s="4"/>
+      <c r="WDY8" s="4"/>
+      <c r="WEG8" s="4"/>
+      <c r="WEO8" s="4"/>
+      <c r="WEW8" s="4"/>
+      <c r="WFE8" s="4"/>
+      <c r="WFM8" s="4"/>
+      <c r="WFU8" s="4"/>
+      <c r="WGC8" s="4"/>
+      <c r="WGK8" s="4"/>
+      <c r="WGS8" s="4"/>
+      <c r="WHA8" s="4"/>
+      <c r="WHI8" s="4"/>
+      <c r="WHQ8" s="4"/>
+      <c r="WHY8" s="4"/>
+      <c r="WIG8" s="4"/>
+      <c r="WIO8" s="4"/>
+      <c r="WIW8" s="4"/>
+      <c r="WJE8" s="4"/>
+      <c r="WJM8" s="4"/>
+      <c r="WJU8" s="4"/>
+      <c r="WKC8" s="4"/>
+      <c r="WKK8" s="4"/>
+      <c r="WKS8" s="4"/>
+      <c r="WLA8" s="4"/>
+      <c r="WLI8" s="4"/>
+      <c r="WLQ8" s="4"/>
+      <c r="WLY8" s="4"/>
+      <c r="WMG8" s="4"/>
+      <c r="WMO8" s="4"/>
+      <c r="WMW8" s="4"/>
+      <c r="WNE8" s="4"/>
+      <c r="WNM8" s="4"/>
+      <c r="WNU8" s="4"/>
+      <c r="WOC8" s="4"/>
+      <c r="WOK8" s="4"/>
+      <c r="WOS8" s="4"/>
+      <c r="WPA8" s="4"/>
+      <c r="WPI8" s="4"/>
+      <c r="WPQ8" s="4"/>
+      <c r="WPY8" s="4"/>
+      <c r="WQG8" s="4"/>
+      <c r="WQO8" s="4"/>
+      <c r="WQW8" s="4"/>
+      <c r="WRE8" s="4"/>
+      <c r="WRM8" s="4"/>
+      <c r="WRU8" s="4"/>
+      <c r="WSC8" s="4"/>
+      <c r="WSK8" s="4"/>
+      <c r="WSS8" s="4"/>
+      <c r="WTA8" s="4"/>
+      <c r="WTI8" s="4"/>
+      <c r="WTQ8" s="4"/>
+      <c r="WTY8" s="4"/>
+      <c r="WUG8" s="4"/>
+      <c r="WUO8" s="4"/>
+      <c r="WUW8" s="4"/>
+      <c r="WVE8" s="4"/>
+      <c r="WVM8" s="4"/>
+      <c r="WVU8" s="4"/>
+      <c r="WWC8" s="4"/>
+      <c r="WWK8" s="4"/>
+      <c r="WWS8" s="4"/>
+      <c r="WXA8" s="4"/>
+      <c r="WXI8" s="4"/>
+      <c r="WXQ8" s="4"/>
+      <c r="WXY8" s="4"/>
+      <c r="WYG8" s="4"/>
+      <c r="WYO8" s="4"/>
+      <c r="WYW8" s="4"/>
+      <c r="WZE8" s="4"/>
+      <c r="WZM8" s="4"/>
+      <c r="WZU8" s="4"/>
+      <c r="XAC8" s="4"/>
+      <c r="XAK8" s="4"/>
+      <c r="XAS8" s="4"/>
+      <c r="XBA8" s="4"/>
+      <c r="XBI8" s="4"/>
+      <c r="XBQ8" s="4"/>
+      <c r="XBY8" s="4"/>
+      <c r="XCG8" s="4"/>
+      <c r="XCO8" s="4"/>
+      <c r="XCW8" s="4"/>
+      <c r="XDE8" s="4"/>
+      <c r="XDM8" s="4"/>
+      <c r="XDU8" s="4"/>
+      <c r="XEC8" s="4"/>
+      <c r="XEK8" s="4"/>
+      <c r="XES8" s="4"/>
+      <c r="XFA8" s="4"/>
+    </row>
+    <row r="9" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1021 1029:2045 2053:3069 3077:4093 4101:5117 5125:6141 6149:7165 7173:8189 8197:9213 9221:10237 10245:11261 11269:12285 12293:13309 13317:14333 14341:15357 15365:16381">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
         <v>190</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4574,15 +7425,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4775,14 +7626,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5020,14 +7871,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5268,15 +8119,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5327,15 +8178,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +8261,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5551,15 +8402,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.33203125" customWidth="1"/>
+    <col min="9" max="9" width="57.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5751,15 +8602,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5815,16 +8666,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6081,7 +8932,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
@@ -6102,7 +8953,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6117,7 +8968,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6141,15 +8992,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6200,16 +9051,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6499,7 +9350,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6520,16 +9371,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6581,7 +9432,7 @@
         <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36">
@@ -6607,7 +9458,7 @@
         <v>189</v>
       </c>
       <c r="I3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36">
@@ -6764,7 +9615,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6778,22 +9629,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310E6B2D-4BEE-419C-9740-8961CF55113B}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6874,7 +9725,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54">
@@ -6882,7 +9733,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -6903,7 +9754,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36">
@@ -6929,7 +9780,7 @@
         <v>189</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36">
@@ -6954,8 +9805,8 @@
       <c r="G6" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>212</v>
+      <c r="I6" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="126">
@@ -6966,7 +9817,7 @@
         <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -6984,7 +9835,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6992,7 +9843,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -7010,7 +9861,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36">
@@ -7018,7 +9869,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
@@ -7036,7 +9887,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36">
@@ -7044,10 +9895,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10">
         <v>32</v>
@@ -7055,14 +9906,14 @@
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>189</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="36">
@@ -7088,7 +9939,7 @@
         <v>189</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="36">
@@ -7096,7 +9947,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -7114,7 +9965,7 @@
         <v>189</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7122,7 +9973,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -7140,7 +9991,7 @@
         <v>189</v>
       </c>
       <c r="I13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7148,7 +9999,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>69</v>
@@ -7166,7 +10017,7 @@
         <v>189</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7174,7 +10025,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -7192,7 +10043,7 @@
         <v>189</v>
       </c>
       <c r="I15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7200,7 +10051,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -7218,7 +10069,7 @@
         <v>189</v>
       </c>
       <c r="I16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7255,7 +10106,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -7297,16 +10148,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7358,7 +10209,7 @@
         <v>189</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36">
@@ -7384,7 +10235,7 @@
         <v>189</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36">
@@ -7409,8 +10260,8 @@
       <c r="G4" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>212</v>
+      <c r="I4" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7436,7 +10287,7 @@
         <v>189</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36">
@@ -7462,7 +10313,7 @@
         <v>189</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7488,7 +10339,7 @@
         <v>189</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7514,7 +10365,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="72">
@@ -7522,7 +10373,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -7540,7 +10391,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7548,7 +10399,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -7569,7 +10420,7 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7598,7 +10449,7 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7612,22 +10463,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF86508F-B95A-4858-90D0-5B6786230D6F}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7679,7 +10530,7 @@
         <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36">
@@ -7704,8 +10555,8 @@
       <c r="G3" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>233</v>
+      <c r="I3" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7771,7 +10622,7 @@
         <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -7789,10 +10640,10 @@
         <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="36">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7815,7 +10666,7 @@
         <v>189</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36">
@@ -7826,7 +10677,7 @@
         <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -7834,14 +10685,14 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>189</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36">
@@ -7867,7 +10718,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36">
@@ -7893,7 +10744,7 @@
         <v>189</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7901,7 +10752,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -7919,7 +10770,7 @@
         <v>189</v>
       </c>
       <c r="I11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7927,7 +10778,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -7990,24 +10841,24 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC0FAF-FFB2-4B65-A22B-3DB506C9F727}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8059,7 +10910,7 @@
         <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36">
@@ -8085,7 +10936,7 @@
         <v>189</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36">
@@ -8111,7 +10962,7 @@
         <v>189</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="54">
@@ -8140,7 +10991,207 @@
         <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="54">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="36">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="36">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -8161,15 +11212,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8385,15 +11436,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.33203125" customWidth="1"/>
+    <col min="9" max="9" width="57.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8614,15 +11665,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8673,21 +11724,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8853,34 +11904,34 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8900,15 +11951,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9001,25 +12052,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B543A80A-8432-4735-90E8-3999D9972E93}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9158,7 +12209,7 @@
         <v>107</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36">
@@ -9508,8 +12559,37 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="B20" t="s">
+    <row r="19" spans="1:9" ht="72">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9525,23 +12605,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E2641F-5A10-43B0-8894-A4FD8061B541}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9596,7 +12676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9682,7 +12762,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -9791,6 +12871,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>